--- a/activated_expert_num.xlsx
+++ b/activated_expert_num.xlsx
@@ -443,168 +443,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3.984</t>
+          <t>3.891</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3.691</t>
+          <t>3.668</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3.277</t>
+          <t>3.551</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3.230</t>
+          <t>3.547</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3.023</t>
+          <t>3.039</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.629</t>
+          <t>2.324</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2.211</t>
+          <t>2.004</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.758</t>
+          <t>1.582</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.512</t>
+          <t>1.547</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.586</t>
+          <t>1.418</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.836</t>
+          <t>1.742</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.727</t>
+          <t>1.715</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.477</t>
+          <t>1.352</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>1.383</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.207</t>
+          <t>1.246</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.258</t>
+          <t>1.270</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.234</t>
+          <t>1.238</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.066</t>
+          <t>1.086</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.078</t>
+          <t>1.109</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.070</t>
+          <t>1.039</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.082</t>
+          <t>1.066</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.102</t>
+          <t>1.055</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>1.066</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1.008</t>
+          <t>1.004</t>
         </is>
       </c>
     </row>
